--- a/example_2_folder/example_2_fixed/main_results.xlsx
+++ b/example_2_folder/example_2_fixed/main_results.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simva\OneDrive\Documents\1 Master 2\Mémoire\code\memoire_partage_elec\example_2_folder\example_2_fixed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BCEAE4-0634-49F9-9FC9-4DF3992C8CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -151,8 +170,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,13 +208,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,7 +260,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -267,6 +294,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -301,9 +329,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -476,64 +505,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BX35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AE1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AG1" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AK1" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AO1" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AQ1" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AS1" t="s">
         <v>20</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BR1" t="s">
         <v>42</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BV1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -552,26 +583,11 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
       <c r="Q2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
       <c r="S2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" t="s">
         <v>1</v>
@@ -591,17 +607,17 @@
       <c r="AC2" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
       <c r="AE2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="s">
         <v>1</v>
       </c>
+      <c r="AH2" t="s">
+        <v>2</v>
+      </c>
       <c r="AI2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK2" t="s">
         <v>1</v>
@@ -612,89 +628,104 @@
       <c r="AM2" t="s">
         <v>3</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AW2" t="s">
         <v>22</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AX2" t="s">
         <v>23</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AY2" t="s">
         <v>24</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AZ2" t="s">
         <v>25</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BA2" t="s">
         <v>26</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BB2" t="s">
         <v>27</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BC2" t="s">
         <v>28</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BD2" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BE2" t="s">
         <v>30</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BF2" t="s">
         <v>31</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BG2" t="s">
         <v>32</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BH2" t="s">
         <v>33</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BI2" t="s">
         <v>34</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BJ2" t="s">
         <v>35</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BK2" t="s">
         <v>36</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BL2" t="s">
         <v>37</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BM2" t="s">
         <v>38</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BN2" t="s">
         <v>39</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BO2" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BP2" t="s">
         <v>41</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BR2" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BS2" t="s">
         <v>2</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BT2" t="s">
         <v>3</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BV2" t="s">
         <v>1</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BW2" t="s">
         <v>2</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:68">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1621.273523428715</v>
       </c>
@@ -708,159 +739,183 @@
         <v>1417.423151674777</v>
       </c>
       <c r="F3">
-        <v>1392.764039363553</v>
+        <v>1392.7640393635529</v>
       </c>
       <c r="G3">
         <v>1413.682385402768</v>
       </c>
       <c r="I3">
+        <f>A3-E3</f>
+        <v>203.85037175393791</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:K3" si="0">B3-F3</f>
+        <v>218.78439587613411</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>205.21057574111001</v>
+      </c>
+      <c r="M3">
+        <f>I3/A3</f>
+        <v>0.1257347195325989</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:O3" si="1">J3/B3</f>
+        <v>0.13576036009342413</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0.12675981715067328</v>
+      </c>
+      <c r="Q3">
         <v>2201.803857509989</v>
       </c>
-      <c r="K3">
-        <v>7060.132768754673</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.551630529517158</v>
-      </c>
-      <c r="Q3">
-        <v>0.2963158044242536</v>
-      </c>
-      <c r="R3">
-        <v>0.3240418832027726</v>
-      </c>
       <c r="S3">
-        <v>0.3023263197565518</v>
+        <v>7060.1327687546727</v>
       </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.55163052951715796</v>
+      </c>
+      <c r="Y3">
+        <v>0.29631580442425359</v>
+      </c>
+      <c r="Z3">
+        <v>0.32404188320277261</v>
+      </c>
+      <c r="AA3">
+        <v>0.30232631975655178</v>
+      </c>
+      <c r="AC3">
         <v>24680540.74247082</v>
       </c>
-      <c r="W3">
-        <v>55045096.43774974</v>
-      </c>
-      <c r="Y3">
-        <v>4883722.349298147</v>
-      </c>
-      <c r="Z3">
-        <v>4852884.44713486</v>
-      </c>
-      <c r="AA3">
-        <v>4877098.395878962</v>
-      </c>
-      <c r="AC3">
-        <v>1447124.116516986</v>
-      </c>
-      <c r="AD3">
+      <c r="AE3">
+        <v>55045096.437749743</v>
+      </c>
+      <c r="AG3">
+        <v>4883722.3492981466</v>
+      </c>
+      <c r="AH3">
+        <v>4852884.4471348599</v>
+      </c>
+      <c r="AI3">
+        <v>4877098.3958789622</v>
+      </c>
+      <c r="AK3">
+        <v>1447124.1165169859</v>
+      </c>
+      <c r="AL3">
         <v>1572537.815215026</v>
       </c>
-      <c r="AE3">
-        <v>1474475.209116669</v>
-      </c>
-      <c r="AG3">
-        <v>5168.508393521503</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AM3">
+        <v>1474475.2091166689</v>
+      </c>
+      <c r="AO3">
+        <v>5168.5083935215034</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>16</v>
       </c>
-      <c r="AK3">
-        <v>471896.4383271112</v>
-      </c>
-      <c r="AL3">
-        <v>254377.1672268595</v>
-      </c>
-      <c r="AM3">
-        <v>145159.9530802337</v>
-      </c>
-      <c r="AN3">
+      <c r="AS3">
+        <v>471896.43832711119</v>
+      </c>
+      <c r="AT3">
+        <v>254377.16722685951</v>
+      </c>
+      <c r="AU3">
+        <v>145159.95308023371</v>
+      </c>
+      <c r="AV3">
         <v>106182.427251417</v>
       </c>
-      <c r="AO3">
-        <v>359917.0609597281</v>
-      </c>
-      <c r="AP3">
-        <v>49908.81681074578</v>
-      </c>
-      <c r="AQ3">
-        <v>517277.0746772173</v>
-      </c>
-      <c r="AR3">
-        <v>278212.0034231709</v>
-      </c>
-      <c r="AS3">
-        <v>449380.4141912759</v>
-      </c>
-      <c r="AT3">
-        <v>333822.1758592034</v>
-      </c>
-      <c r="AU3">
+      <c r="AW3">
+        <v>359917.06095972809</v>
+      </c>
+      <c r="AX3">
+        <v>49908.816810745782</v>
+      </c>
+      <c r="AY3">
+        <v>517277.07467721729</v>
+      </c>
+      <c r="AZ3">
+        <v>278212.00342317089</v>
+      </c>
+      <c r="BA3">
+        <v>449380.41419127589</v>
+      </c>
+      <c r="BB3">
+        <v>333822.17585920339</v>
+      </c>
+      <c r="BC3">
         <v>166892.2680491647</v>
       </c>
-      <c r="AV3">
-        <v>73828.05344363551</v>
-      </c>
-      <c r="AW3">
-        <v>226304.0624728689</v>
-      </c>
-      <c r="AX3">
+      <c r="BD3">
+        <v>73828.053443635508</v>
+      </c>
+      <c r="BE3">
+        <v>226304.06247286891</v>
+      </c>
+      <c r="BF3">
         <v>24763.02779465936</v>
       </c>
-      <c r="AY3">
-        <v>763765.6939734829</v>
-      </c>
-      <c r="AZ3">
-        <v>202915.2259788905</v>
-      </c>
-      <c r="BA3">
-        <v>681782.7183945825</v>
-      </c>
-      <c r="BB3">
+      <c r="BG3">
+        <v>763765.69397348294</v>
+      </c>
+      <c r="BH3">
+        <v>202915.22597889049</v>
+      </c>
+      <c r="BI3">
+        <v>681782.71839458251</v>
+      </c>
+      <c r="BJ3">
         <v>187452.2539471889</v>
       </c>
-      <c r="BC3">
-        <v>504572.5663611445</v>
-      </c>
-      <c r="BD3">
+      <c r="BK3">
+        <v>504572.56636114448</v>
+      </c>
+      <c r="BL3">
         <v>224303.4979101294</v>
       </c>
-      <c r="BE3">
+      <c r="BM3">
         <v>49303.96559465192</v>
       </c>
-      <c r="BF3">
-        <v>93826.07411909163</v>
-      </c>
-      <c r="BG3">
-        <v>338782.6092251975</v>
-      </c>
-      <c r="BH3">
-        <v>131666.0421818994</v>
-      </c>
-      <c r="BJ3">
+      <c r="BN3">
+        <v>93826.074119091631</v>
+      </c>
+      <c r="BO3">
+        <v>338782.60922519752</v>
+      </c>
+      <c r="BP3">
+        <v>131666.04218189939</v>
+      </c>
+      <c r="BR3">
         <v>2061750</v>
       </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>995763.3133579984</v>
-      </c>
-      <c r="BO3">
-        <v>964925.4111947097</v>
-      </c>
-      <c r="BP3">
-        <v>989139.359938814</v>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>995763.31335799838</v>
+      </c>
+      <c r="BW3">
+        <v>964925.41119470971</v>
+      </c>
+      <c r="BX3">
+        <v>989139.35993881396</v>
       </c>
     </row>
-    <row r="4" spans="1:68">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1416.354970876366</v>
       </c>
       <c r="B4">
-        <v>1401.72009240776</v>
+        <v>1401.7200924077599</v>
       </c>
       <c r="C4">
         <v>1412.676432922686</v>
@@ -869,315 +924,363 @@
         <v>1217.438262498086</v>
       </c>
       <c r="F4">
-        <v>1195.912647979531</v>
+        <v>1195.9126479795309</v>
       </c>
       <c r="G4">
-        <v>1216.087654693477</v>
+        <v>1216.0876546934769</v>
       </c>
       <c r="I4">
-        <v>2503.955409587573</v>
+        <f t="shared" ref="I4:I26" si="2">A4-E4</f>
+        <v>198.91670837827996</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J26" si="3">B4-F4</f>
+        <v>205.80744442822902</v>
       </c>
       <c r="K4">
-        <v>7581.57214223317</v>
+        <f t="shared" ref="K4:K26" si="4">C4-G4</f>
+        <v>196.58877822920908</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f t="shared" ref="M4:M26" si="5">I4/A4</f>
+        <v>0.1404426944293497</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N26" si="6">J4/B4</f>
+        <v>0.14682492285225779</v>
       </c>
       <c r="O4">
-        <v>0.5069595801510189</v>
+        <f t="shared" ref="O4:O26" si="7">K4/C4</f>
+        <v>0.13916051379330127</v>
       </c>
       <c r="Q4">
-        <v>0.2981314523806828</v>
-      </c>
-      <c r="R4">
-        <v>0.3145067919656461</v>
+        <v>2503.9554095875728</v>
       </c>
       <c r="S4">
-        <v>0.2981902442012618</v>
+        <v>7581.5721422331699</v>
       </c>
       <c r="U4">
-        <v>30863780.66065462</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>62598885.23968934</v>
+        <v>0.50695958015101894</v>
       </c>
       <c r="Y4">
-        <v>4016388.484629742</v>
+        <v>0.29813145238068278</v>
       </c>
       <c r="Z4">
+        <v>0.31450679196564613</v>
+      </c>
+      <c r="AA4">
+        <v>0.29819024420126178</v>
+      </c>
+      <c r="AC4">
+        <v>30863780.660654619</v>
+      </c>
+      <c r="AE4">
+        <v>62598885.239689343</v>
+      </c>
+      <c r="AG4">
+        <v>4016388.4846297419</v>
+      </c>
+      <c r="AH4">
         <v>3972388.063250416</v>
       </c>
-      <c r="AA4">
+      <c r="AI4">
         <v>4006937.234019442</v>
       </c>
-      <c r="AC4">
-        <v>1197411.732247715</v>
-      </c>
-      <c r="AD4">
-        <v>1249343.026215514</v>
-      </c>
-      <c r="AE4">
+      <c r="AK4">
+        <v>1197411.7322477149</v>
+      </c>
+      <c r="AL4">
+        <v>1249343.0262155139</v>
+      </c>
+      <c r="AM4">
         <v>1194829.592311386</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>17</v>
       </c>
-      <c r="AK4">
-        <v>543343.1999999998</v>
-      </c>
-      <c r="AL4">
+      <c r="AS4">
+        <v>543343.19999999984</v>
+      </c>
+      <c r="AT4">
         <v>122690.4</v>
       </c>
-      <c r="AM4">
+      <c r="AU4">
         <v>473234.4</v>
       </c>
-      <c r="AN4">
+      <c r="AV4">
         <v>403125.6</v>
       </c>
-      <c r="AO4">
+      <c r="AW4">
         <v>219090</v>
       </c>
-      <c r="AP4">
+      <c r="AX4">
         <v>219090</v>
       </c>
-      <c r="AQ4">
+      <c r="AY4">
         <v>201562.8</v>
       </c>
-      <c r="AR4">
+      <c r="AZ4">
         <v>464470.8</v>
       </c>
-      <c r="AS4">
-        <v>902650.8000000003</v>
-      </c>
-      <c r="AT4">
+      <c r="BA4">
+        <v>902650.80000000028</v>
+      </c>
+      <c r="BB4">
         <v>508288.8</v>
       </c>
-      <c r="AU4">
-        <v>446943.5999999999</v>
-      </c>
-      <c r="AV4">
-        <v>262907.9999999999</v>
-      </c>
-      <c r="AW4">
+      <c r="BC4">
+        <v>446943.59999999992</v>
+      </c>
+      <c r="BD4">
+        <v>262907.99999999988</v>
+      </c>
+      <c r="BE4">
         <v>175272</v>
       </c>
-      <c r="AX4">
-        <v>359307.5999999999</v>
-      </c>
-      <c r="AY4">
+      <c r="BF4">
+        <v>359307.59999999992</v>
+      </c>
+      <c r="BG4">
         <v>376834.8</v>
       </c>
-      <c r="AZ4">
-        <v>955232.3999999999</v>
-      </c>
-      <c r="BA4">
-        <v>630979.2</v>
-      </c>
-      <c r="BB4">
+      <c r="BH4">
+        <v>955232.39999999991</v>
+      </c>
+      <c r="BI4">
+        <v>630979.19999999995</v>
+      </c>
+      <c r="BJ4">
         <v>473234.4</v>
       </c>
-      <c r="BC4">
-        <v>990286.8000000002</v>
-      </c>
-      <c r="BD4">
+      <c r="BK4">
+        <v>990286.80000000016</v>
+      </c>
+      <c r="BL4">
         <v>324253.2</v>
       </c>
-      <c r="BE4">
+      <c r="BM4">
         <v>473234.4</v>
       </c>
-      <c r="BF4">
+      <c r="BN4">
         <v>438180</v>
       </c>
-      <c r="BG4">
+      <c r="BO4">
         <v>701088</v>
       </c>
-      <c r="BH4">
+      <c r="BP4">
         <v>648506.4</v>
       </c>
-      <c r="BJ4">
+      <c r="BR4">
         <v>1508100</v>
       </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
         <v>1420784.239791238</v>
       </c>
-      <c r="BO4">
+      <c r="BW4">
         <v>1376783.81841193</v>
       </c>
-      <c r="BP4">
+      <c r="BX4">
         <v>1411332.98918095</v>
       </c>
     </row>
-    <row r="5" spans="1:68">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1143.655295228521</v>
       </c>
       <c r="B5">
-        <v>1135.623087815044</v>
+        <v>1135.6230878150441</v>
       </c>
       <c r="C5">
         <v>1141.636366278364</v>
       </c>
       <c r="E5">
-        <v>979.6103616946552</v>
+        <v>979.61036169465524</v>
       </c>
       <c r="F5">
-        <v>970.1720287670917</v>
+        <v>970.17202876709166</v>
       </c>
       <c r="G5">
-        <v>981.7538191621464</v>
+        <v>981.75381916214644</v>
       </c>
       <c r="I5">
+        <f t="shared" si="2"/>
+        <v>164.04493353386579</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>165.45105904795241</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>159.88254711621755</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>0.14343914133767635</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>0.14569187684118218</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>0.14004682387389328</v>
+      </c>
+      <c r="Q5">
         <v>2295.762614109557</v>
       </c>
-      <c r="K5">
-        <v>7162.703886347826</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.5299917816335215</v>
-      </c>
-      <c r="Q5">
-        <v>0.3041010191298864</v>
-      </c>
-      <c r="R5">
-        <v>0.3117506440178817</v>
-      </c>
       <c r="S5">
-        <v>0.3003661338079026</v>
+        <v>7162.7038863478256</v>
       </c>
       <c r="U5">
-        <v>26975682.40125004</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>57394065.35273891</v>
+        <v>0.52999178163352145</v>
       </c>
       <c r="Y5">
-        <v>3272791.560615783</v>
+        <v>0.30410101912988641</v>
       </c>
       <c r="Z5">
+        <v>0.31175064401788172</v>
+      </c>
+      <c r="AA5">
+        <v>0.30036613380790261</v>
+      </c>
+      <c r="AC5">
+        <v>26975682.401250038</v>
+      </c>
+      <c r="AE5">
+        <v>57394065.352738909</v>
+      </c>
+      <c r="AG5">
+        <v>3272791.5606157831</v>
+      </c>
+      <c r="AH5">
         <v>3248642.367196972</v>
       </c>
-      <c r="AA5">
-        <v>3267604.335769226</v>
-      </c>
-      <c r="AC5">
-        <v>995259.2489829508</v>
-      </c>
-      <c r="AD5">
+      <c r="AI5">
+        <v>3267604.3357692258</v>
+      </c>
+      <c r="AK5">
+        <v>995259.24898295081</v>
+      </c>
+      <c r="AL5">
         <v>1012766.350157431</v>
       </c>
-      <c r="AE5">
-        <v>981477.6811489422</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AM5">
+        <v>981477.68114894221</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>18</v>
       </c>
-      <c r="AK5">
-        <v>360936.3976130522</v>
-      </c>
-      <c r="AL5">
-        <v>548796.6776116121</v>
-      </c>
-      <c r="AM5">
+      <c r="AS5">
+        <v>360936.39761305222</v>
+      </c>
+      <c r="AT5">
+        <v>548796.67761161213</v>
+      </c>
+      <c r="AU5">
         <v>593128.9159773374</v>
       </c>
-      <c r="AN5">
+      <c r="AV5">
         <v>479273.7301564485</v>
       </c>
-      <c r="AO5">
+      <c r="AW5">
         <v>329191.4370754722</v>
       </c>
-      <c r="AP5">
-        <v>751484.9025597243</v>
-      </c>
-      <c r="AQ5">
-        <v>355269.8667450423</v>
-      </c>
-      <c r="AR5">
-        <v>595502.899317715</v>
-      </c>
-      <c r="AS5">
-        <v>523073.363115809</v>
-      </c>
-      <c r="AT5">
-        <v>586636.7148345578</v>
-      </c>
-      <c r="AU5">
-        <v>357470.4532069694</v>
-      </c>
-      <c r="AV5">
-        <v>919691.8046869691</v>
-      </c>
-      <c r="AW5">
-        <v>713106.5026760283</v>
-      </c>
       <c r="AX5">
+        <v>751484.90255972429</v>
+      </c>
+      <c r="AY5">
+        <v>355269.86674504232</v>
+      </c>
+      <c r="AZ5">
+        <v>595502.89931771497</v>
+      </c>
+      <c r="BA5">
+        <v>523073.36311580898</v>
+      </c>
+      <c r="BB5">
+        <v>586636.71483455785</v>
+      </c>
+      <c r="BC5">
+        <v>357470.45320696943</v>
+      </c>
+      <c r="BD5">
+        <v>919691.80468696915</v>
+      </c>
+      <c r="BE5">
+        <v>713106.50267602829</v>
+      </c>
+      <c r="BF5">
         <v>688148.54053328</v>
       </c>
-      <c r="AY5">
-        <v>366064.2348619564</v>
-      </c>
-      <c r="AZ5">
-        <v>680646.0756791476</v>
-      </c>
-      <c r="BA5">
-        <v>572677.822339903</v>
-      </c>
-      <c r="BB5">
-        <v>381297.7542315315</v>
-      </c>
-      <c r="BC5">
-        <v>711277.6764980099</v>
-      </c>
-      <c r="BD5">
-        <v>780849.8226914362</v>
-      </c>
-      <c r="BE5">
-        <v>463285.5232884589</v>
-      </c>
-      <c r="BF5">
-        <v>459482.2905793553</v>
-      </c>
       <c r="BG5">
-        <v>554334.8960209704</v>
+        <v>366064.23486195639</v>
       </c>
       <c r="BH5">
-        <v>653271.3955293517</v>
+        <v>680646.07567914762</v>
+      </c>
+      <c r="BI5">
+        <v>572677.82233990298</v>
       </c>
       <c r="BJ5">
+        <v>381297.75423153152</v>
+      </c>
+      <c r="BK5">
+        <v>711277.67649800994</v>
+      </c>
+      <c r="BL5">
+        <v>780849.82269143616</v>
+      </c>
+      <c r="BM5">
+        <v>463285.52328845888</v>
+      </c>
+      <c r="BN5">
+        <v>459482.29057935532</v>
+      </c>
+      <c r="BO5">
+        <v>554334.89602097042</v>
+      </c>
+      <c r="BP5">
+        <v>653271.39552935166</v>
+      </c>
+      <c r="BR5">
         <v>822000</v>
       </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>779783.2915582067</v>
-      </c>
-      <c r="BO5">
-        <v>755634.0981393936</v>
-      </c>
-      <c r="BP5">
-        <v>774596.066711651</v>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>779783.29155820666</v>
+      </c>
+      <c r="BW5">
+        <v>755634.09813939361</v>
+      </c>
+      <c r="BX5">
+        <v>774596.06671165104</v>
       </c>
     </row>
-    <row r="6" spans="1:68">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1893.500342094125</v>
       </c>
@@ -1185,139 +1288,163 @@
         <v>1865.517167879447</v>
       </c>
       <c r="C6">
-        <v>1886.466654138734</v>
+        <v>1886.4666541387339</v>
       </c>
       <c r="E6">
         <v>1682.171074184901</v>
       </c>
       <c r="F6">
-        <v>1646.336797202414</v>
+        <v>1646.3367972024139</v>
       </c>
       <c r="G6">
-        <v>1679.548949762532</v>
-      </c>
-      <c r="Q6">
-        <v>0.2345915350704263</v>
-      </c>
-      <c r="R6">
-        <v>0.2515362511344361</v>
-      </c>
-      <c r="S6">
-        <v>0.2346724644286811</v>
+        <v>1679.5489497625319</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>211.32926790922397</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>219.18037067703312</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>206.91770437620198</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>0.11160772628934593</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>0.11749040665553229</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>0.10968532304678888</v>
       </c>
       <c r="Y6">
-        <v>5423426.127997766</v>
+        <v>0.23459153507042629</v>
       </c>
       <c r="Z6">
-        <v>5339293.454151583</v>
+        <v>0.25153625113443612</v>
       </c>
       <c r="AA6">
+        <v>0.23467246442868109</v>
+      </c>
+      <c r="AG6">
+        <v>5423426.1279977662</v>
+      </c>
+      <c r="AH6">
+        <v>5339293.4541515829</v>
+      </c>
+      <c r="AI6">
         <v>5405354.505951697</v>
       </c>
-      <c r="AC6">
-        <v>1272289.860708054</v>
-      </c>
-      <c r="AD6">
+      <c r="AK6">
+        <v>1272289.8607080539</v>
+      </c>
+      <c r="AL6">
         <v>1343025.859163923</v>
       </c>
-      <c r="AE6">
+      <c r="AM6">
         <v>1268487.86302236</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AQ6" t="s">
         <v>19</v>
       </c>
-      <c r="AK6">
+      <c r="AS6">
         <v>450033</v>
       </c>
-      <c r="AL6">
+      <c r="AT6">
         <v>161640</v>
       </c>
-      <c r="AM6">
+      <c r="AU6">
         <v>459485</v>
       </c>
-      <c r="AN6">
+      <c r="AV6">
         <v>202380</v>
       </c>
-      <c r="AO6">
+      <c r="AW6">
         <v>20242</v>
       </c>
-      <c r="AP6">
+      <c r="AX6">
         <v>26082</v>
       </c>
-      <c r="AQ6">
+      <c r="AY6">
         <v>81073</v>
       </c>
-      <c r="AR6">
+      <c r="AZ6">
         <v>23434</v>
       </c>
-      <c r="AS6">
+      <c r="BA6">
         <v>517722.75</v>
       </c>
-      <c r="AT6">
+      <c r="BB6">
         <v>423146</v>
       </c>
-      <c r="AU6">
+      <c r="BC6">
         <v>243972</v>
       </c>
-      <c r="AV6">
+      <c r="BD6">
         <v>411570</v>
       </c>
-      <c r="AW6">
+      <c r="BE6">
         <v>199043</v>
       </c>
-      <c r="AX6">
+      <c r="BF6">
         <v>252373</v>
       </c>
-      <c r="AY6">
+      <c r="BG6">
         <v>29098</v>
       </c>
-      <c r="AZ6">
+      <c r="BH6">
         <v>101464</v>
       </c>
-      <c r="BA6">
+      <c r="BI6">
         <v>196683.5</v>
       </c>
-      <c r="BB6">
+      <c r="BJ6">
         <v>298506</v>
       </c>
-      <c r="BC6">
+      <c r="BK6">
         <v>686612</v>
       </c>
-      <c r="BD6">
+      <c r="BL6">
         <v>192249</v>
       </c>
-      <c r="BE6">
+      <c r="BM6">
         <v>70434</v>
       </c>
-      <c r="BF6">
+      <c r="BN6">
         <v>197800</v>
       </c>
-      <c r="BG6">
+      <c r="BO6">
         <v>64895</v>
       </c>
-      <c r="BH6">
+      <c r="BP6">
         <v>248994</v>
       </c>
-      <c r="BJ6">
+      <c r="BR6">
         <v>1515800</v>
       </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>2716664.37058986</v>
-      </c>
-      <c r="BO6">
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>2716664.3705898598</v>
+      </c>
+      <c r="BW6">
         <v>2632531.696743689</v>
       </c>
-      <c r="BP6">
-        <v>2698592.748543792</v>
+      <c r="BX6">
+        <v>2698592.7485437919</v>
       </c>
     </row>
-    <row r="7" spans="1:68">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1032.090413760613</v>
       </c>
@@ -1331,58 +1458,82 @@
         <v>905.8244373141797</v>
       </c>
       <c r="F7">
-        <v>889.4342696120491</v>
+        <v>889.43426961204909</v>
       </c>
       <c r="G7">
-        <v>905.8965174701485</v>
-      </c>
-      <c r="Q7">
-        <v>0.2794459751434129</v>
-      </c>
-      <c r="R7">
+        <v>905.89651747014852</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>126.26597644643334</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>129.68134667497486</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>123.25265503291746</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>0.12234003413166082</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>0.12724890542590939</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>0.11976170056391924</v>
+      </c>
+      <c r="Y7">
+        <v>0.27944597514341291</v>
+      </c>
+      <c r="Z7">
         <v>0.2911712958366996</v>
       </c>
-      <c r="S7">
-        <v>0.2749058805517094</v>
-      </c>
-      <c r="Y7">
-        <v>2975331.626108601</v>
-      </c>
-      <c r="Z7">
-        <v>2937267.769518549</v>
-      </c>
       <c r="AA7">
-        <v>2967155.544231436</v>
-      </c>
-      <c r="AC7">
-        <v>831444.4476329542</v>
-      </c>
-      <c r="AD7">
-        <v>855248.0626700883</v>
-      </c>
-      <c r="AE7">
-        <v>815688.5076208296</v>
-      </c>
-      <c r="BJ7">
+        <v>0.27490588055170939</v>
+      </c>
+      <c r="AG7">
+        <v>2975331.6261086012</v>
+      </c>
+      <c r="AH7">
+        <v>2937267.7695185491</v>
+      </c>
+      <c r="AI7">
+        <v>2967155.5442314362</v>
+      </c>
+      <c r="AK7">
+        <v>831444.44763295422</v>
+      </c>
+      <c r="AL7">
+        <v>855248.06267008826</v>
+      </c>
+      <c r="AM7">
+        <v>815688.50762082962</v>
+      </c>
+      <c r="BR7">
         <v>817800</v>
       </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>1229091.128073447</v>
-      </c>
-      <c r="BO7">
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>1229091.1280734469</v>
+      </c>
+      <c r="BW7">
         <v>1191027.271483375</v>
       </c>
-      <c r="BP7">
-        <v>1220915.046196276</v>
+      <c r="BX7">
+        <v>1220915.0461962761</v>
       </c>
     </row>
-    <row r="8" spans="1:68">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1980.791604289107</v>
       </c>
@@ -1399,125 +1550,181 @@
         <v>1750.224035271242</v>
       </c>
       <c r="G8">
-        <v>1779.825406295481</v>
-      </c>
-      <c r="Q8">
+        <v>1779.8254062954809</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>191.94371537673601</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>196.70673552645098</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>193.29032631372911</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>9.690252874714872E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0.10103427326584224</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>9.7961981205291856E-2</v>
+      </c>
+      <c r="W8">
+        <f>AVERAGE(W3:W5)</f>
+        <v>0.52952729710056612</v>
+      </c>
+      <c r="Y8">
         <v>0.220630169458856</v>
       </c>
-      <c r="R8">
-        <v>0.2312594679751749</v>
-      </c>
-      <c r="S8">
-        <v>0.2242973700036938</v>
-      </c>
-      <c r="Y8">
+      <c r="Z8">
+        <v>0.23125946797517491</v>
+      </c>
+      <c r="AA8">
+        <v>0.22429737000369379</v>
+      </c>
+      <c r="AG8">
         <v>5724322.629473106</v>
       </c>
-      <c r="Z8">
-        <v>5624985.902818193</v>
-      </c>
-      <c r="AA8">
-        <v>5702985.190671584</v>
-      </c>
-      <c r="AC8">
-        <v>1262958.271777816</v>
-      </c>
-      <c r="AD8">
+      <c r="AH8">
+        <v>5624985.9028181927</v>
+      </c>
+      <c r="AI8">
+        <v>5702985.1906715836</v>
+      </c>
+      <c r="AK8">
+        <v>1262958.2717778159</v>
+      </c>
+      <c r="AL8">
         <v>1300831.247253594</v>
       </c>
-      <c r="AE8">
+      <c r="AM8">
         <v>1279164.57943765</v>
       </c>
-      <c r="BJ8">
+      <c r="BR8">
         <v>1470150</v>
       </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
         <v>3207606.910102712</v>
       </c>
-      <c r="BO8">
-        <v>3108270.183447812</v>
-      </c>
-      <c r="BP8">
-        <v>3186269.471301194</v>
+      <c r="BW8">
+        <v>3108270.1834478122</v>
+      </c>
+      <c r="BX8">
+        <v>3186269.4713011938</v>
       </c>
     </row>
-    <row r="9" spans="1:68">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1458.069001318349</v>
+        <v>1458.0690013183489</v>
       </c>
       <c r="B9">
         <v>1441.016211662806</v>
       </c>
       <c r="C9">
-        <v>1453.894722677772</v>
+        <v>1453.8947226777721</v>
       </c>
       <c r="E9">
-        <v>1292.004948878394</v>
+        <v>1292.0049488783941</v>
       </c>
       <c r="F9">
-        <v>1268.948275457555</v>
+        <v>1268.9482754575549</v>
       </c>
       <c r="G9">
-        <v>1289.516182899789</v>
-      </c>
-      <c r="Q9">
-        <v>0.2664221569268153</v>
-      </c>
-      <c r="R9">
-        <v>0.2829606543316631</v>
+        <v>1289.5161828997891</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>166.06405243995482</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>172.06793620525104</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>164.37853977798295</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>0.11389313694331607</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>0.11940735628969766</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>0.11306082704202394</v>
       </c>
       <c r="S9">
-        <v>0.2681147671274123</v>
+        <f>AVERAGE(S3:S5)</f>
+        <v>7268.1362657785567</v>
       </c>
       <c r="Y9">
-        <v>4414288.09838186</v>
+        <v>0.26642215692681531</v>
       </c>
       <c r="Z9">
+        <v>0.28296065433166312</v>
+      </c>
+      <c r="AA9">
+        <v>0.26811476712741228</v>
+      </c>
+      <c r="AG9">
+        <v>4414288.0983818602</v>
+      </c>
+      <c r="AH9">
         <v>4360214.320459649</v>
       </c>
-      <c r="AA9">
-        <v>4402673.099921217</v>
-      </c>
-      <c r="AC9">
+      <c r="AI9">
+        <v>4402673.0999212172</v>
+      </c>
+      <c r="AK9">
         <v>1176064.156467265</v>
       </c>
-      <c r="AD9">
-        <v>1233769.09714355</v>
-      </c>
-      <c r="AE9">
+      <c r="AL9">
+        <v>1233769.0971435499</v>
+      </c>
+      <c r="AM9">
         <v>1180421.672923499</v>
       </c>
-      <c r="BJ9">
+      <c r="BR9">
         <v>1513050</v>
       </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>1746055.356959533</v>
-      </c>
-      <c r="BO9">
-        <v>1691981.579037327</v>
-      </c>
-      <c r="BP9">
-        <v>1734440.35849888</v>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>1746055.3569595329</v>
+      </c>
+      <c r="BW9">
+        <v>1691981.5790373271</v>
+      </c>
+      <c r="BX9">
+        <v>1734440.3584988799</v>
       </c>
     </row>
-    <row r="10" spans="1:68">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2048.767845058175</v>
+        <v>2048.7678450581752</v>
       </c>
       <c r="B10">
-        <v>2015.602583507561</v>
+        <v>2015.6025835075609</v>
       </c>
       <c r="C10">
         <v>2040.649464095505</v>
@@ -1531,53 +1738,77 @@
       <c r="G10">
         <v>1853.091185900669</v>
       </c>
-      <c r="Q10">
-        <v>0.2152549181915329</v>
-      </c>
-      <c r="R10">
-        <v>0.2277012691269585</v>
-      </c>
-      <c r="S10">
-        <v>0.2160412607179051</v>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>190.21344344256727</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>194.98789571205589</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>187.55827819483602</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>9.284284888665173E-2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>9.6739256690541175E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>9.1911071202995229E-2</v>
       </c>
       <c r="Y10">
-        <v>6257300.165978262</v>
+        <v>0.21525491819153289</v>
       </c>
       <c r="Z10">
-        <v>6152134.323670534</v>
+        <v>0.22770126912695851</v>
       </c>
       <c r="AA10">
-        <v>6234710.638420677</v>
-      </c>
-      <c r="AC10">
-        <v>1346914.635327516</v>
-      </c>
-      <c r="AD10">
+        <v>0.21604126071790511</v>
+      </c>
+      <c r="AG10">
+        <v>6257300.1659782622</v>
+      </c>
+      <c r="AH10">
+        <v>6152134.3236705344</v>
+      </c>
+      <c r="AI10">
+        <v>6234710.6384206768</v>
+      </c>
+      <c r="AK10">
+        <v>1346914.6353275159</v>
+      </c>
+      <c r="AL10">
         <v>1400848.793339303</v>
       </c>
-      <c r="AE10">
+      <c r="AM10">
         <v>1346954.746535738</v>
       </c>
-      <c r="BJ10">
+      <c r="BR10">
         <v>1499850</v>
       </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>3395830.463237387</v>
-      </c>
-      <c r="BO10">
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>3395830.4632373871</v>
+      </c>
+      <c r="BW10">
         <v>3290664.620929651</v>
       </c>
-      <c r="BP10">
-        <v>3373240.935679802</v>
+      <c r="BX10">
+        <v>3373240.9356798022</v>
       </c>
     </row>
-    <row r="11" spans="1:68">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1878.669637179652</v>
       </c>
@@ -1588,61 +1819,85 @@
         <v>1875.664903076228</v>
       </c>
       <c r="E11">
-        <v>1642.16357991032</v>
+        <v>1642.1635799103201</v>
       </c>
       <c r="F11">
         <v>1616.972247807591</v>
       </c>
       <c r="G11">
-        <v>1641.481068500099</v>
-      </c>
-      <c r="Q11">
-        <v>0.2960716048538607</v>
-      </c>
-      <c r="R11">
-        <v>0.3165142091145686</v>
-      </c>
-      <c r="S11">
-        <v>0.2964411899927549</v>
+        <v>1641.4810685000989</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>236.5060572693319</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>249.42243049930403</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>234.18383457612913</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>0.12589017919317949</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>0.13363863142042831</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>0.12485377009083577</v>
       </c>
       <c r="Y11">
-        <v>5683674.924045516</v>
+        <v>0.29607160485386069</v>
       </c>
       <c r="Z11">
-        <v>5644751.474363805</v>
+        <v>0.31651420911456862</v>
       </c>
       <c r="AA11">
+        <v>0.29644118999275493</v>
+      </c>
+      <c r="AG11">
+        <v>5683674.9240455162</v>
+      </c>
+      <c r="AH11">
+        <v>5644751.4743638048</v>
+      </c>
+      <c r="AI11">
         <v>5675314.202351789</v>
       </c>
-      <c r="AC11">
-        <v>1682774.756229801</v>
-      </c>
-      <c r="AD11">
-        <v>1786644.048556555</v>
-      </c>
-      <c r="AE11">
-        <v>1682396.895727947</v>
-      </c>
-      <c r="BJ11">
+      <c r="AK11">
+        <v>1682774.7562298011</v>
+      </c>
+      <c r="AL11">
+        <v>1786644.0485565551</v>
+      </c>
+      <c r="AM11">
+        <v>1682396.8957279469</v>
+      </c>
+      <c r="BR11">
         <v>2034000</v>
       </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
         <v>1256847.596738433</v>
       </c>
-      <c r="BO11">
+      <c r="BW11">
         <v>1217924.14705674</v>
       </c>
-      <c r="BP11">
-        <v>1248486.875044716</v>
+      <c r="BX11">
+        <v>1248486.8750447161</v>
       </c>
     </row>
-    <row r="12" spans="1:68">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2167.302723104463</v>
       </c>
@@ -1650,7 +1905,7 @@
         <v>2137.818535713493</v>
       </c>
       <c r="C12">
-        <v>2159.891749205092</v>
+        <v>2159.8917492050919</v>
       </c>
       <c r="E12">
         <v>1931.524908766298</v>
@@ -1659,66 +1914,90 @@
         <v>1896.465971165564</v>
       </c>
       <c r="G12">
-        <v>1929.357508314563</v>
-      </c>
-      <c r="Q12">
-        <v>0.228663812136656</v>
-      </c>
-      <c r="R12">
-        <v>0.2413837593137649</v>
-      </c>
-      <c r="S12">
-        <v>0.2286063095810092</v>
+        <v>1929.3575083145629</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>235.77781433816494</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>241.35256454792898</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>230.53424089052896</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>0.10878859322450109</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>0.11289665634196497</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>0.10673416432808396</v>
       </c>
       <c r="Y12">
-        <v>6209179.521775074</v>
+        <v>0.22866381213665599</v>
       </c>
       <c r="Z12">
+        <v>0.24138375931376491</v>
+      </c>
+      <c r="AA12">
+        <v>0.22860630958100919</v>
+      </c>
+      <c r="AG12">
+        <v>6209179.5217750743</v>
+      </c>
+      <c r="AH12">
         <v>6120533.984197679</v>
       </c>
-      <c r="AA12">
-        <v>6190138.540692052</v>
-      </c>
-      <c r="AC12">
+      <c r="AI12">
+        <v>6190138.5406920519</v>
+      </c>
+      <c r="AK12">
         <v>1419814.659689947</v>
       </c>
-      <c r="AD12">
-        <v>1477397.502113291</v>
-      </c>
-      <c r="AE12">
-        <v>1415104.727582784</v>
-      </c>
-      <c r="BJ12">
+      <c r="AL12">
+        <v>1477397.5021132911</v>
+      </c>
+      <c r="AM12">
+        <v>1415104.7275827839</v>
+      </c>
+      <c r="BR12">
         <v>1494900</v>
       </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>2862385.8310815</v>
-      </c>
-      <c r="BO12">
-        <v>2773740.293504079</v>
-      </c>
-      <c r="BP12">
-        <v>2843344.849998472</v>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>2862385.8310814998</v>
+      </c>
+      <c r="BW12">
+        <v>2773740.2935040789</v>
+      </c>
+      <c r="BX12">
+        <v>2843344.8499984718</v>
       </c>
     </row>
-    <row r="13" spans="1:68">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1165.126543445217</v>
+        <v>1165.1265434452171</v>
       </c>
       <c r="B13">
         <v>1159.176098353586</v>
       </c>
       <c r="C13">
-        <v>1163.630874167345</v>
+        <v>1163.6308741673449</v>
       </c>
       <c r="E13">
-        <v>982.2643100531749</v>
+        <v>982.26431005317488</v>
       </c>
       <c r="F13">
         <v>963.7174735601609</v>
@@ -1726,126 +2005,174 @@
       <c r="G13">
         <v>977.7569289438436</v>
       </c>
-      <c r="Q13">
-        <v>0.335273394287313</v>
-      </c>
-      <c r="R13">
-        <v>0.3652920517840583</v>
-      </c>
-      <c r="S13">
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>182.86223339204219</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>195.45862479342509</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>185.87394522350132</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>0.15694624281009709</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>0.16861857751470297</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>0.1597361752338399</v>
+      </c>
+      <c r="Y13">
+        <v>0.33527339428731301</v>
+      </c>
+      <c r="Z13">
+        <v>0.36529205178405832</v>
+      </c>
+      <c r="AA13">
         <v>0.3470468172865761</v>
       </c>
-      <c r="Y13">
-        <v>3295559.82534709</v>
-      </c>
-      <c r="Z13">
-        <v>3277669.544126925</v>
-      </c>
-      <c r="AA13">
+      <c r="AG13">
+        <v>3295559.8253470901</v>
+      </c>
+      <c r="AH13">
+        <v>3277669.5441269251</v>
+      </c>
+      <c r="AI13">
         <v>3291717.00916488</v>
       </c>
-      <c r="AC13">
-        <v>1104913.528721023</v>
-      </c>
-      <c r="AD13">
+      <c r="AK13">
+        <v>1104913.5287210229</v>
+      </c>
+      <c r="AL13">
         <v>1197306.632844243</v>
       </c>
-      <c r="AE13">
+      <c r="AM13">
         <v>1142379.911438759</v>
       </c>
-      <c r="BJ13">
+      <c r="BR13">
         <v>1502600</v>
       </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>577681.5040909282</v>
-      </c>
-      <c r="BO13">
-        <v>559791.2228707693</v>
-      </c>
-      <c r="BP13">
-        <v>573838.6879087206</v>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>577681.50409092824</v>
+      </c>
+      <c r="BW13">
+        <v>559791.22287076933</v>
+      </c>
+      <c r="BX13">
+        <v>573838.68790872057</v>
       </c>
     </row>
-    <row r="14" spans="1:68">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1828.913175327636</v>
+        <v>1828.9131753276361</v>
       </c>
       <c r="B14">
-        <v>1800.478803699839</v>
+        <v>1800.4788036998391</v>
       </c>
       <c r="C14">
-        <v>1821.766077014087</v>
+        <v>1821.7660770140869</v>
       </c>
       <c r="E14">
-        <v>1639.683367241446</v>
+        <v>1639.6833672414459</v>
       </c>
       <c r="F14">
         <v>1607.603264610975</v>
       </c>
       <c r="G14">
-        <v>1636.283306072393</v>
-      </c>
-      <c r="Q14">
+        <v>1636.2833060723931</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>189.22980808619013</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>192.87553908886412</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>185.48277094169384</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>0.10346571430450274</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>0.10712458191261147</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>0.10181481216606252</v>
+      </c>
+      <c r="Y14">
         <v>0.2159214330425977</v>
       </c>
-      <c r="R14">
+      <c r="Z14">
         <v>0.2268666981406918</v>
       </c>
-      <c r="S14">
-        <v>0.2157977421368605</v>
-      </c>
-      <c r="Y14">
-        <v>5255865.405832507</v>
-      </c>
-      <c r="Z14">
-        <v>5170376.18663855</v>
-      </c>
       <c r="AA14">
-        <v>5237502.399075926</v>
-      </c>
-      <c r="AC14">
+        <v>0.21579774213686051</v>
+      </c>
+      <c r="AG14">
+        <v>5255865.4058325067</v>
+      </c>
+      <c r="AH14">
+        <v>5170376.1866385499</v>
+      </c>
+      <c r="AI14">
+        <v>5237502.3990759263</v>
+      </c>
+      <c r="AK14">
         <v>1134853.990306369</v>
       </c>
-      <c r="AD14">
-        <v>1172986.173607949</v>
-      </c>
-      <c r="AE14">
-        <v>1130241.192156975</v>
-      </c>
-      <c r="BJ14">
+      <c r="AL14">
+        <v>1172986.1736079489</v>
+      </c>
+      <c r="AM14">
+        <v>1130241.1921569749</v>
+      </c>
+      <c r="BR14">
         <v>827400</v>
       </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>2760467.54770194</v>
-      </c>
-      <c r="BO14">
-        <v>2674978.328507954</v>
-      </c>
-      <c r="BP14">
-        <v>2742104.540945348</v>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>2760467.5477019399</v>
+      </c>
+      <c r="BW14">
+        <v>2674978.3285079538</v>
+      </c>
+      <c r="BX14">
+        <v>2742104.5409453479</v>
       </c>
     </row>
-    <row r="15" spans="1:68">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1298.285974262893</v>
       </c>
       <c r="B15">
-        <v>1281.300618360642</v>
+        <v>1281.3006183606419</v>
       </c>
       <c r="C15">
-        <v>1294.435584331521</v>
+        <v>1294.4355843315211</v>
       </c>
       <c r="E15">
         <v>1149.907933507852</v>
@@ -1856,183 +2183,255 @@
       <c r="G15">
         <v>1149.612358135282</v>
       </c>
-      <c r="Q15">
-        <v>0.2606669870801652</v>
-      </c>
-      <c r="R15">
-        <v>0.2701641389360755</v>
-      </c>
-      <c r="S15">
-        <v>0.2563474581008466</v>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>148.37804075504096</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>151.39313605060693</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>144.82322619623915</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>0.11428764054797956</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>0.11815582844586982</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>0.11188136972534596</v>
       </c>
       <c r="Y15">
-        <v>3747133.358074908</v>
+        <v>0.26066698708016522</v>
       </c>
       <c r="Z15">
-        <v>3697303.821042766</v>
+        <v>0.27016413893607549</v>
       </c>
       <c r="AA15">
+        <v>0.25634745810084658</v>
+      </c>
+      <c r="AG15">
+        <v>3747133.3580749081</v>
+      </c>
+      <c r="AH15">
+        <v>3697303.8210427659</v>
+      </c>
+      <c r="AI15">
         <v>3736430.018708542</v>
       </c>
-      <c r="AC15">
-        <v>976753.9626369679</v>
-      </c>
-      <c r="AD15">
-        <v>998878.9031970807</v>
-      </c>
-      <c r="AE15">
-        <v>957824.3376676335</v>
-      </c>
-      <c r="BJ15">
+      <c r="AK15">
+        <v>976753.96263696789</v>
+      </c>
+      <c r="AL15">
+        <v>998878.90319708071</v>
+      </c>
+      <c r="AM15">
+        <v>957824.33766763355</v>
+      </c>
+      <c r="BR15">
         <v>824400</v>
       </c>
-      <c r="BK15">
-        <v>0</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BN15">
-        <v>1609007.792926107</v>
-      </c>
-      <c r="BO15">
-        <v>1559178.255893954</v>
-      </c>
-      <c r="BP15">
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>1609007.7929261071</v>
+      </c>
+      <c r="BW15">
+        <v>1559178.2558939541</v>
+      </c>
+      <c r="BX15">
         <v>1598304.453559733</v>
       </c>
     </row>
-    <row r="16" spans="1:68">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1711.496300734767</v>
+        <v>1711.4963007347669</v>
       </c>
       <c r="B16">
-        <v>1689.447385903151</v>
+        <v>1689.4473859031509</v>
       </c>
       <c r="C16">
-        <v>1706.498058710646</v>
+        <v>1706.4980587106461</v>
       </c>
       <c r="E16">
-        <v>1510.040440550409</v>
+        <v>1510.0404405504089</v>
       </c>
       <c r="F16">
-        <v>1484.105936129337</v>
+        <v>1484.1059361293369</v>
       </c>
       <c r="G16">
-        <v>1504.009270140477</v>
-      </c>
-      <c r="Q16">
+        <v>1504.0092701404769</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>201.45586018435802</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>205.34144977381402</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>202.48878857016916</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>0.11770744704377711</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>0.12154356003459785</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>0.11865749716888671</v>
+      </c>
+      <c r="Y16">
         <v>0.2686107513599455</v>
       </c>
-      <c r="R16">
-        <v>0.2785268780778281</v>
-      </c>
-      <c r="S16">
-        <v>0.2720422595613723</v>
-      </c>
-      <c r="Y16">
-        <v>4936766.435371516</v>
-      </c>
       <c r="Z16">
-        <v>4872082.055224131</v>
+        <v>0.27852687807782811</v>
       </c>
       <c r="AA16">
+        <v>0.27204225956137229</v>
+      </c>
+      <c r="AG16">
+        <v>4936766.4353715163</v>
+      </c>
+      <c r="AH16">
+        <v>4872082.0552241309</v>
+      </c>
+      <c r="AI16">
         <v>4922872.289175177</v>
       </c>
-      <c r="AC16">
-        <v>1326068.541493703</v>
-      </c>
-      <c r="AD16">
-        <v>1357005.804580585</v>
-      </c>
-      <c r="AE16">
-        <v>1339229.301079281</v>
-      </c>
-      <c r="BJ16">
+      <c r="AK16">
+        <v>1326068.5414937029</v>
+      </c>
+      <c r="AL16">
+        <v>1357005.8045805851</v>
+      </c>
+      <c r="AM16">
+        <v>1339229.3010792809</v>
+      </c>
+      <c r="BR16">
         <v>1523500</v>
       </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <v>2088674.267043664</v>
-      </c>
-      <c r="BO16">
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>2088674.2670436639</v>
+      </c>
+      <c r="BW16">
         <v>2023989.886896268</v>
       </c>
-      <c r="BP16">
-        <v>2074780.120847325</v>
+      <c r="BX16">
+        <v>2074780.1208473251</v>
       </c>
     </row>
-    <row r="17" spans="1:68">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1381.422530096149</v>
+        <v>1381.4225300961491</v>
       </c>
       <c r="B17">
-        <v>1370.138716970887</v>
+        <v>1370.1387169708869</v>
       </c>
       <c r="C17">
-        <v>1378.660414274371</v>
+        <v>1378.6604142743711</v>
       </c>
       <c r="E17">
-        <v>1217.401115398491</v>
+        <v>1217.4011153984909</v>
       </c>
       <c r="F17">
-        <v>1195.218172440665</v>
+        <v>1195.2181724406651</v>
       </c>
       <c r="G17">
         <v>1212.003636748319</v>
       </c>
-      <c r="Q17">
-        <v>0.2782576685588024</v>
-      </c>
-      <c r="R17">
-        <v>0.3027520201406173</v>
-      </c>
-      <c r="S17">
-        <v>0.2873990549271717</v>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>164.0214146976582</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>174.92054453022183</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>166.65677752605211</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>0.11873370465895186</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>0.12766630295430051</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>0.12088312379214021</v>
       </c>
       <c r="Y17">
-        <v>4167325.73701735</v>
+        <v>0.27825766855880241</v>
       </c>
       <c r="Z17">
+        <v>0.30275202014061731</v>
+      </c>
+      <c r="AA17">
+        <v>0.28739905492717172</v>
+      </c>
+      <c r="AG17">
+        <v>4167325.7370173498</v>
+      </c>
+      <c r="AH17">
         <v>4131545.174577021</v>
       </c>
-      <c r="AA17">
+      <c r="AI17">
         <v>4159640.104652931</v>
       </c>
-      <c r="AC17">
+      <c r="AK17">
         <v>1159590.343707541</v>
       </c>
-      <c r="AD17">
-        <v>1250833.647905413</v>
-      </c>
-      <c r="AE17">
+      <c r="AL17">
+        <v>1250833.6479054131</v>
+      </c>
+      <c r="AM17">
         <v>1195476.634914414</v>
       </c>
-      <c r="BJ17">
+      <c r="BR17">
         <v>1476200</v>
       </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
         <v>1155363.008181856</v>
       </c>
-      <c r="BO17">
-        <v>1119582.445741539</v>
-      </c>
-      <c r="BP17">
-        <v>1147677.375817441</v>
+      <c r="BW17">
+        <v>1119582.4457415389</v>
+      </c>
+      <c r="BX17">
+        <v>1147677.3758174409</v>
       </c>
     </row>
-    <row r="18" spans="1:68">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1777.092109275198</v>
       </c>
@@ -2040,72 +2439,96 @@
         <v>1757.879130170018</v>
       </c>
       <c r="C18">
-        <v>1772.389047200268</v>
+        <v>1772.3890472002679</v>
       </c>
       <c r="E18">
-        <v>1570.800018998291</v>
+        <v>1570.8000189982911</v>
       </c>
       <c r="F18">
-        <v>1547.869076909442</v>
+        <v>1547.8690769094419</v>
       </c>
       <c r="G18">
         <v>1570.884737311608</v>
       </c>
-      <c r="Q18">
-        <v>0.2698205508697656</v>
-      </c>
-      <c r="R18">
-        <v>0.2804357652356309</v>
-      </c>
-      <c r="S18">
-        <v>0.2679370565404947</v>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>206.29209027690695</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>210.01005326057611</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>201.50430988865992</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>0.11608407307657503</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>0.11946785740625092</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>0.11369078939353844</v>
       </c>
       <c r="Y18">
-        <v>5416697.418292105</v>
+        <v>0.26982055086976559</v>
       </c>
       <c r="Z18">
-        <v>5355773.757920732</v>
+        <v>0.28043576523563091</v>
       </c>
       <c r="AA18">
-        <v>5403611.071293226</v>
-      </c>
-      <c r="AC18">
-        <v>1461536.281298413</v>
-      </c>
-      <c r="AD18">
-        <v>1501950.512231411</v>
-      </c>
-      <c r="AE18">
+        <v>0.26793705654049471</v>
+      </c>
+      <c r="AG18">
+        <v>5416697.4182921052</v>
+      </c>
+      <c r="AH18">
+        <v>5355773.7579207318</v>
+      </c>
+      <c r="AI18">
+        <v>5403611.0712932264</v>
+      </c>
+      <c r="AK18">
+        <v>1461536.2812984129</v>
+      </c>
+      <c r="AL18">
+        <v>1501950.5122314109</v>
+      </c>
+      <c r="AM18">
         <v>1447827.645131937</v>
       </c>
-      <c r="BJ18">
+      <c r="BR18">
         <v>1509200</v>
       </c>
-      <c r="BK18">
-        <v>0</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>1967239.716634167</v>
-      </c>
-      <c r="BO18">
-        <v>1906316.056262789</v>
-      </c>
-      <c r="BP18">
-        <v>1954153.369635288</v>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>1967239.7166341669</v>
+      </c>
+      <c r="BW18">
+        <v>1906316.0562627891</v>
+      </c>
+      <c r="BX18">
+        <v>1954153.3696352879</v>
       </c>
     </row>
-    <row r="19" spans="1:68">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1526.715697123562</v>
       </c>
       <c r="B19">
-        <v>1521.988694327841</v>
+        <v>1521.9886943278409</v>
       </c>
       <c r="C19">
-        <v>1525.558594549571</v>
+        <v>1525.5585945495709</v>
       </c>
       <c r="E19">
         <v>1316.518735607769</v>
@@ -2116,61 +2539,85 @@
       <c r="G19">
         <v>1314.374654952805</v>
       </c>
-      <c r="Q19">
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>210.19696151579296</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>220.13157518670891</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>211.18393959676587</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>0.13767917753896064</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>0.14463417238715173</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>0.13843056592599712</v>
+      </c>
+      <c r="Y19">
         <v>0.324730531125553</v>
       </c>
-      <c r="R19">
-        <v>0.345771035966401</v>
-      </c>
-      <c r="S19">
-        <v>0.3311854117891104</v>
-      </c>
-      <c r="Y19">
-        <v>4588876.663080962</v>
-      </c>
       <c r="Z19">
-        <v>4573887.508545148</v>
+        <v>0.34577103596640102</v>
       </c>
       <c r="AA19">
-        <v>4585657.006279651</v>
-      </c>
-      <c r="AC19">
+        <v>0.33118541178911037</v>
+      </c>
+      <c r="AG19">
+        <v>4588876.6630809624</v>
+      </c>
+      <c r="AH19">
+        <v>4573887.5085451482</v>
+      </c>
+      <c r="AI19">
+        <v>4585657.0062796511</v>
+      </c>
+      <c r="AK19">
         <v>1490148.356071936</v>
       </c>
-      <c r="AD19">
+      <c r="AL19">
         <v>1581517.822223437</v>
       </c>
-      <c r="AE19">
+      <c r="AM19">
         <v>1518702.703948345</v>
       </c>
-      <c r="BJ19">
+      <c r="BR19">
         <v>2022750</v>
       </c>
-      <c r="BK19">
-        <v>0</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
-        <v>484003.4223465162</v>
-      </c>
-      <c r="BO19">
-        <v>469014.2678106981</v>
-      </c>
-      <c r="BP19">
-        <v>480783.7655452045</v>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>484003.42234651622</v>
+      </c>
+      <c r="BW19">
+        <v>469014.26781069807</v>
+      </c>
+      <c r="BX19">
+        <v>480783.76554520451</v>
       </c>
     </row>
-    <row r="20" spans="1:68">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1767.675627853095</v>
       </c>
       <c r="B20">
-        <v>1745.0710841867</v>
+        <v>1745.0710841867001</v>
       </c>
       <c r="C20">
-        <v>1761.993881196926</v>
+        <v>1761.9938811969259</v>
       </c>
       <c r="E20">
         <v>1554.41999915781</v>
@@ -2181,321 +2628,441 @@
       <c r="G20">
         <v>1553.450132460433</v>
       </c>
-      <c r="Q20">
-        <v>0.2541117725288926</v>
-      </c>
-      <c r="R20">
-        <v>0.2715170662058922</v>
-      </c>
-      <c r="S20">
-        <v>0.2531925165887708</v>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>213.25562869528494</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>223.06257011226012</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>208.54374873649294</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>0.12064183345351177</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>0.12782434603013301</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>0.11835668157645858</v>
       </c>
       <c r="Y20">
-        <v>5044736.212007727</v>
+        <v>0.25411177252889261</v>
       </c>
       <c r="Z20">
-        <v>4976774.633198391</v>
+        <v>0.27151706620589222</v>
       </c>
       <c r="AA20">
-        <v>5030138.126510743</v>
-      </c>
-      <c r="AC20">
+        <v>0.25319251658877079</v>
+      </c>
+      <c r="AG20">
+        <v>5044736.2120077265</v>
+      </c>
+      <c r="AH20">
+        <v>4976774.6331983907</v>
+      </c>
+      <c r="AI20">
+        <v>5030138.1265107431</v>
+      </c>
+      <c r="AK20">
         <v>1281926.860773975</v>
       </c>
-      <c r="AD20">
-        <v>1351279.247573932</v>
-      </c>
-      <c r="AE20">
-        <v>1273593.33104038</v>
-      </c>
-      <c r="BJ20">
+      <c r="AL20">
+        <v>1351279.2475739319</v>
+      </c>
+      <c r="AM20">
+        <v>1273593.3310403801</v>
+      </c>
+      <c r="BR20">
         <v>1509750</v>
       </c>
-      <c r="BK20">
-        <v>0</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
         <v>2194495.803829086</v>
       </c>
-      <c r="BO20">
+      <c r="BW20">
         <v>2126534.225019726</v>
       </c>
-      <c r="BP20">
-        <v>2179897.718332099</v>
+      <c r="BX20">
+        <v>2179897.7183320988</v>
       </c>
     </row>
-    <row r="21" spans="1:68">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1637.304741247296</v>
+        <v>1637.3047412472961</v>
       </c>
       <c r="B21">
-        <v>1627.253313727644</v>
+        <v>1627.2533137276439</v>
       </c>
       <c r="C21">
-        <v>1634.778272872512</v>
+        <v>1634.7782728725119</v>
       </c>
       <c r="E21">
         <v>1426.488153216965</v>
       </c>
       <c r="F21">
-        <v>1410.797884887062</v>
+        <v>1410.7978848870621</v>
       </c>
       <c r="G21">
-        <v>1424.818100601164</v>
-      </c>
-      <c r="Q21">
-        <v>0.272561414893888</v>
-      </c>
-      <c r="R21">
-        <v>0.2859007699093317</v>
-      </c>
-      <c r="S21">
+        <v>1424.8181006011639</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>210.8165880303311</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>216.45542884058182</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>209.96017227134803</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>0.1287583079187393</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>0.13301888956964836</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>0.12843342473742417</v>
+      </c>
+      <c r="Y21">
+        <v>0.27256141489388802</v>
+      </c>
+      <c r="Z21">
+        <v>0.28590076990933172</v>
+      </c>
+      <c r="AA21">
         <v>0.2751283073304861</v>
       </c>
-      <c r="Y21">
-        <v>4687562.394364147</v>
-      </c>
-      <c r="Z21">
-        <v>4657342.324735489</v>
-      </c>
-      <c r="AA21">
-        <v>4681071.150813117</v>
-      </c>
-      <c r="AC21">
-        <v>1277648.638611274</v>
-      </c>
-      <c r="AD21">
-        <v>1331537.756373193</v>
-      </c>
-      <c r="AE21">
-        <v>1287895.182216783</v>
-      </c>
-      <c r="BJ21">
+      <c r="AG21">
+        <v>4687562.3943641474</v>
+      </c>
+      <c r="AH21">
+        <v>4657342.3247354887</v>
+      </c>
+      <c r="AI21">
+        <v>4681071.1508131167</v>
+      </c>
+      <c r="AK21">
+        <v>1277648.6386112741</v>
+      </c>
+      <c r="AL21">
+        <v>1331537.7563731931</v>
+      </c>
+      <c r="AM21">
+        <v>1287895.1822167831</v>
+      </c>
+      <c r="BR21">
         <v>819000</v>
       </c>
-      <c r="BK21">
-        <v>0</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BN21">
-        <v>975813.351505002</v>
-      </c>
-      <c r="BO21">
-        <v>945593.2818763448</v>
-      </c>
-      <c r="BP21">
-        <v>969322.1079539714</v>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>975813.35150500201</v>
+      </c>
+      <c r="BW21">
+        <v>945593.28187634482</v>
+      </c>
+      <c r="BX21">
+        <v>969322.10795397137</v>
       </c>
     </row>
-    <row r="22" spans="1:68">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2217.156825598476</v>
+        <v>2217.1568255984762</v>
       </c>
       <c r="B22">
-        <v>2182.981972031692</v>
+        <v>2182.9819720316918</v>
       </c>
       <c r="C22">
-        <v>2208.566833124226</v>
+        <v>2208.5668331242259</v>
       </c>
       <c r="E22">
-        <v>1981.065897915888</v>
+        <v>1981.0658979158879</v>
       </c>
       <c r="F22">
-        <v>1942.317698696601</v>
+        <v>1942.3176986966009</v>
       </c>
       <c r="G22">
         <v>1978.840614992585</v>
       </c>
-      <c r="Q22">
-        <v>0.2233006002275572</v>
-      </c>
-      <c r="R22">
-        <v>0.2337239570111704</v>
-      </c>
-      <c r="S22">
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>236.09092768258824</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>240.66427333509091</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>229.72621813164096</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>0.10648363929730606</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>0.11024565315631339</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>0.10401596849422554</v>
+      </c>
+      <c r="Y22">
+        <v>0.22330060022755721</v>
+      </c>
+      <c r="Z22">
+        <v>0.23372395701117041</v>
+      </c>
+      <c r="AA22">
         <v>0.2210384478980037</v>
       </c>
-      <c r="Y22">
-        <v>6357970.915718541</v>
-      </c>
-      <c r="Z22">
-        <v>6255222.678981107</v>
-      </c>
-      <c r="AA22">
-        <v>6335900.687645038</v>
-      </c>
-      <c r="AC22">
+      <c r="AG22">
+        <v>6357970.9157185405</v>
+      </c>
+      <c r="AH22">
+        <v>6255222.6789811067</v>
+      </c>
+      <c r="AI22">
+        <v>6335900.6876450377</v>
+      </c>
+      <c r="AK22">
         <v>1419738.721709301</v>
       </c>
-      <c r="AD22">
-        <v>1461995.396517478</v>
-      </c>
-      <c r="AE22">
-        <v>1400477.654032953</v>
-      </c>
-      <c r="BJ22">
+      <c r="AL22">
+        <v>1461995.3965174779</v>
+      </c>
+      <c r="AM22">
+        <v>1400477.6540329531</v>
+      </c>
+      <c r="BR22">
         <v>1518550</v>
       </c>
-      <c r="BK22">
-        <v>0</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BN22">
-        <v>3317765.39511706</v>
-      </c>
-      <c r="BO22">
-        <v>3215017.158379584</v>
-      </c>
-      <c r="BP22">
-        <v>3295695.167043513</v>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>3317765.3951170598</v>
+      </c>
+      <c r="BW22">
+        <v>3215017.1583795841</v>
+      </c>
+      <c r="BX22">
+        <v>3295695.1670435132</v>
       </c>
     </row>
-    <row r="23" spans="1:68">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>920.8263279698124</v>
+        <v>920.82632796981238</v>
       </c>
       <c r="B23">
-        <v>912.622080590608</v>
+        <v>912.62208059060799</v>
       </c>
       <c r="C23">
-        <v>918.9665169840953</v>
+        <v>918.96651698409528</v>
       </c>
       <c r="E23">
-        <v>793.5703939156194</v>
+        <v>793.57039391561943</v>
       </c>
       <c r="F23">
-        <v>781.1840869009266</v>
+        <v>781.18408690092656</v>
       </c>
       <c r="G23">
-        <v>791.5402087974685</v>
-      </c>
-      <c r="Q23">
-        <v>0.315474220685812</v>
-      </c>
-      <c r="R23">
-        <v>0.3301124979314101</v>
-      </c>
-      <c r="S23">
-        <v>0.3178479537730923</v>
+        <v>791.54020879746849</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>127.25593405419295</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>131.43799368968143</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>127.42630818662678</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>0.13819754082700902</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>0.1440223686069711</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>0.13866262353586076</v>
       </c>
       <c r="Y23">
-        <v>2657239.011503977</v>
+        <v>0.31547422068581199</v>
       </c>
       <c r="Z23">
-        <v>2633170.404937508</v>
+        <v>0.33011249793141012</v>
       </c>
       <c r="AA23">
-        <v>2652069.096640222</v>
-      </c>
-      <c r="AC23">
-        <v>838290.4063301545</v>
-      </c>
-      <c r="AD23">
-        <v>869242.4598529832</v>
-      </c>
-      <c r="AE23">
-        <v>842954.7356319479</v>
-      </c>
-      <c r="BJ23">
+        <v>0.31784795377309227</v>
+      </c>
+      <c r="AG23">
+        <v>2657239.0115039768</v>
+      </c>
+      <c r="AH23">
+        <v>2633170.4049375081</v>
+      </c>
+      <c r="AI23">
+        <v>2652069.0966402218</v>
+      </c>
+      <c r="AK23">
+        <v>838290.40633015451</v>
+      </c>
+      <c r="AL23">
+        <v>869242.45985298324</v>
+      </c>
+      <c r="AM23">
+        <v>842954.73563194787</v>
+      </c>
+      <c r="BR23">
         <v>823800</v>
       </c>
-      <c r="BK23">
-        <v>0</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
-        <v>777181.1226208687</v>
-      </c>
-      <c r="BO23">
-        <v>753112.5160544071</v>
-      </c>
-      <c r="BP23">
-        <v>772011.2077571168</v>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>777181.12262086873</v>
+      </c>
+      <c r="BW23">
+        <v>753112.51605440711</v>
+      </c>
+      <c r="BX23">
+        <v>772011.20775711676</v>
       </c>
     </row>
-    <row r="24" spans="1:68">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1815.19837290187</v>
       </c>
       <c r="B24">
-        <v>1788.415534080245</v>
+        <v>1788.4155340802449</v>
       </c>
       <c r="C24">
         <v>1809.127003333545</v>
       </c>
       <c r="E24">
-        <v>1618.831413836292</v>
+        <v>1618.8314138362921</v>
       </c>
       <c r="F24">
-        <v>1588.262789853297</v>
+        <v>1588.2627898532969</v>
       </c>
       <c r="G24">
-        <v>1616.254083490814</v>
-      </c>
-      <c r="Q24">
-        <v>0.2466434431811236</v>
-      </c>
-      <c r="R24">
-        <v>0.2571014254602981</v>
-      </c>
-      <c r="S24">
+        <v>1616.2540834908141</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>196.36695906557793</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>200.15274422694802</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>192.87291984273088</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>0.10817933841118178</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>0.11191624117148119</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>0.10661104471236026</v>
+      </c>
+      <c r="Y24">
+        <v>0.24664344318112361</v>
+      </c>
+      <c r="Z24">
+        <v>0.25710142546029813</v>
+      </c>
+      <c r="AA24">
         <v>0.2447222991605012</v>
       </c>
-      <c r="Y24">
-        <v>5239453.078611429</v>
-      </c>
-      <c r="Z24">
-        <v>5160880.897576919</v>
-      </c>
-      <c r="AA24">
-        <v>5222575.845378749</v>
-      </c>
-      <c r="AC24">
-        <v>1292276.747694661</v>
-      </c>
-      <c r="AD24">
-        <v>1326869.835397849</v>
-      </c>
-      <c r="AE24">
-        <v>1278080.768421186</v>
-      </c>
-      <c r="BJ24">
+      <c r="AG24">
+        <v>5239453.0786114288</v>
+      </c>
+      <c r="AH24">
+        <v>5160880.8975769188</v>
+      </c>
+      <c r="AI24">
+        <v>5222575.8453787491</v>
+      </c>
+      <c r="AK24">
+        <v>1292276.7476946609</v>
+      </c>
+      <c r="AL24">
+        <v>1326869.8353978491</v>
+      </c>
+      <c r="AM24">
+        <v>1278080.7684211859</v>
+      </c>
+      <c r="BR24">
         <v>1513050</v>
       </c>
-      <c r="BK24">
-        <v>0</v>
-      </c>
-      <c r="BL24">
-        <v>0</v>
-      </c>
-      <c r="BN24">
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
         <v>2537114.713912996</v>
       </c>
-      <c r="BO24">
+      <c r="BW24">
         <v>2458542.532878493</v>
       </c>
-      <c r="BP24">
-        <v>2520237.480680321</v>
+      <c r="BX24">
+        <v>2520237.4806803209</v>
       </c>
     </row>
-    <row r="25" spans="1:68">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1752.549010159214</v>
       </c>
       <c r="B25">
-        <v>1737.03376711197</v>
+        <v>1737.0337671119701</v>
       </c>
       <c r="C25">
-        <v>1748.751100904257</v>
+        <v>1748.7511009042571</v>
       </c>
       <c r="E25">
         <v>1544.360511144055</v>
@@ -2506,115 +3073,203 @@
       <c r="G25">
         <v>1541.473264670831</v>
       </c>
-      <c r="Q25">
-        <v>0.2776708901414678</v>
-      </c>
-      <c r="R25">
-        <v>0.2977810136655332</v>
-      </c>
-      <c r="S25">
-        <v>0.2815654916494951</v>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>208.1884990151591</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>217.84338921893209</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>207.27783623342611</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>0.11879182710915787</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>0.12541114245644355</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>0.11852906690165649</v>
       </c>
       <c r="Y25">
-        <v>5305724.641496298</v>
+        <v>0.27767089014146779</v>
       </c>
       <c r="Z25">
-        <v>5256526.368140842</v>
+        <v>0.29778101366553322</v>
       </c>
       <c r="AA25">
-        <v>5295156.896995219</v>
-      </c>
-      <c r="AC25">
-        <v>1473245.284049797</v>
-      </c>
-      <c r="AD25">
-        <v>1565293.750264583</v>
-      </c>
-      <c r="AE25">
-        <v>1490933.455063674</v>
-      </c>
-      <c r="BJ25">
+        <v>0.28156549164949513</v>
+      </c>
+      <c r="AG25">
+        <v>5305724.6414962979</v>
+      </c>
+      <c r="AH25">
+        <v>5256526.3681408418</v>
+      </c>
+      <c r="AI25">
+        <v>5295156.8969952194</v>
+      </c>
+      <c r="AK25">
+        <v>1473245.2840497971</v>
+      </c>
+      <c r="AL25">
+        <v>1565293.7502645829</v>
+      </c>
+      <c r="AM25">
+        <v>1490933.4550636739</v>
+      </c>
+      <c r="BR25">
         <v>2058000</v>
       </c>
-      <c r="BK25">
-        <v>0</v>
-      </c>
-      <c r="BL25">
-        <v>0</v>
-      </c>
-      <c r="BN25">
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
         <v>1588624.136250183</v>
       </c>
-      <c r="BO25">
-        <v>1539425.86289473</v>
-      </c>
-      <c r="BP25">
+      <c r="BW25">
+        <v>1539425.8628947299</v>
+      </c>
+      <c r="BX25">
         <v>1578056.391749108</v>
       </c>
     </row>
-    <row r="26" spans="1:68">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2231.670622834428</v>
+        <v>2231.6706228344278</v>
       </c>
       <c r="B26">
-        <v>2196.218101866549</v>
+        <v>2196.2181018665492</v>
       </c>
       <c r="C26">
-        <v>2222.992353529499</v>
+        <v>2222.9923535294988</v>
       </c>
       <c r="E26">
-        <v>2019.656830524572</v>
+        <v>2019.6568305245719</v>
       </c>
       <c r="F26">
-        <v>1980.665637214462</v>
+        <v>1980.6656372144621</v>
       </c>
       <c r="G26">
         <v>2017.03320060173</v>
       </c>
-      <c r="Q26">
-        <v>0.2194061432252588</v>
-      </c>
-      <c r="R26">
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>212.01379230985594</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>215.55246465208711</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>205.95915292776886</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>9.5002277728860746E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>9.8147112287659724E-2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>9.2649510287681605E-2</v>
+      </c>
+      <c r="Y26">
+        <v>0.21940614322525881</v>
+      </c>
+      <c r="Z26">
         <v>0.2291248950929376</v>
       </c>
-      <c r="S26">
-        <v>0.2169848548810686</v>
-      </c>
-      <c r="Y26">
-        <v>6816163.505309825</v>
-      </c>
-      <c r="Z26">
-        <v>6703744.84629122</v>
-      </c>
       <c r="AA26">
+        <v>0.21698485488106861</v>
+      </c>
+      <c r="AG26">
+        <v>6816163.5053098248</v>
+      </c>
+      <c r="AH26">
+        <v>6703744.8462912198</v>
+      </c>
+      <c r="AI26">
         <v>6792016.079299991</v>
       </c>
-      <c r="AC26">
-        <v>1495508.14629279</v>
-      </c>
-      <c r="AD26">
-        <v>1535994.834636297</v>
-      </c>
-      <c r="AE26">
+      <c r="AK26">
+        <v>1495508.1462927901</v>
+      </c>
+      <c r="AL26">
+        <v>1535994.8346362971</v>
+      </c>
+      <c r="AM26">
         <v>1473764.623316793</v>
       </c>
-      <c r="BJ26">
+      <c r="BR26">
         <v>1503700</v>
       </c>
-      <c r="BK26">
-        <v>0</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BN26">
-        <v>3630025.667598259</v>
-      </c>
-      <c r="BO26">
-        <v>3517607.008579664</v>
-      </c>
-      <c r="BP26">
-        <v>3605878.241588432</v>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>3630025.6675982592</v>
+      </c>
+      <c r="BW26">
+        <v>3517607.0085796639</v>
+      </c>
+      <c r="BX26">
+        <v>3605878.2415884319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <f>AVERAGE(I3:I26)</f>
+        <v>192.97237827706149</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31:O31" si="8">AVERAGE(J3:J26)</f>
+        <v>199.53091524812967</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="8"/>
+        <v>190.89906643841576</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="8"/>
+        <v>0.11928501531008501</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="8"/>
+        <v>0.12477205332545482</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="8"/>
+        <v>0.11842869358122021</v>
+      </c>
+      <c r="Y31">
+        <f>AVERAGE(Y3:AA26)</f>
+        <v>0.2722523930596486</v>
+      </c>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f>AVERAGE(I31:K31)</f>
+        <v>194.46745332120233</v>
+      </c>
+      <c r="N35">
+        <f>AVERAGE(M31:O31)</f>
+        <v>0.12082858740558668</v>
       </c>
     </row>
   </sheetData>
